--- a/Cars/Data.xlsx
+++ b/Cars/Data.xlsx
@@ -406,9 +406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
